--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-11.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-11.xlsx
@@ -70,18 +70,18 @@
     <t>Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
   </si>
   <si>
+    <t>Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+  </si>
+  <si>
+    <t>Apropiacion De Cables Tendido Electrico O De Comunicaciones.</t>
+  </si>
+  <si>
+    <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
+  </si>
+  <si>
     <t>Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
   </si>
   <si>
-    <t>Apropiacion De Cables Tendido Electrico O De Comunicaciones.</t>
-  </si>
-  <si>
-    <t>Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
-  </si>
-  <si>
-    <t>Trafico De Pequeñas Cantidades (Art. 4).</t>
-  </si>
-  <si>
     <t>Presunta Desgracia.</t>
   </si>
   <si>
@@ -91,21 +91,21 @@
     <t>Otros Delitos Contra Las Personas</t>
   </si>
   <si>
+    <t>Trafico Ilícito De Drogas (Art. 3).</t>
+  </si>
+  <si>
+    <t>Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+  </si>
+  <si>
+    <t>Presunta Desgracia Infantil.</t>
+  </si>
+  <si>
+    <t>Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+  </si>
+  <si>
     <t>Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
   </si>
   <si>
-    <t>Trafico Ilícito De Drogas (Art. 3).</t>
-  </si>
-  <si>
-    <t>Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
-  </si>
-  <si>
-    <t>Presunta Desgracia Infantil.</t>
-  </si>
-  <si>
-    <t>Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
-  </si>
-  <si>
     <t>Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
   </si>
   <si>
@@ -121,16 +121,16 @@
     <t>Receptacion. Art. 456 Bis A.</t>
   </si>
   <si>
+    <t>Robo Con Intimidacion.</t>
+  </si>
+  <si>
+    <t>Robo Por Sorpresa.</t>
+  </si>
+  <si>
     <t>Otras Faltas Codigo Penal.</t>
   </si>
   <si>
-    <t>Robo Por Sorpresa.</t>
-  </si>
-  <si>
     <t>Robo En Lugar No Habitado.</t>
-  </si>
-  <si>
-    <t>Robo Con Intimidacion.</t>
   </si>
   <si>
     <t>Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
@@ -1055,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>99</v>
@@ -1211,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>99</v>
